--- a/com.myntrajio/src/test/resources/Data/EmpDetails.xlsx
+++ b/com.myntrajio/src/test/resources/Data/EmpDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8ad42844295a94fe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohin\git\repository\com.myntrajio\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A854F6F4-7AEA-42F8-9030-D0AAD2EAEE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F1D169-9182-4374-B278-BEAC2D10D240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{19DF32AE-1C08-4327-A346-E8B9D8C88929}"/>
+    <workbookView xWindow="2124" yWindow="108" windowWidth="17280" windowHeight="8880" xr2:uid="{19DF32AE-1C08-4327-A346-E8B9D8C88929}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterDetails" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Name</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Mobile No</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>User1</t>
   </si>
   <si>
@@ -118,6 +115,24 @@
   </si>
   <si>
     <t>adminuser5@gmail.ocm</t>
+  </si>
+  <si>
+    <t>8080861551'</t>
+  </si>
+  <si>
+    <t>9860208155'</t>
+  </si>
+  <si>
+    <t>9637811959'</t>
+  </si>
+  <si>
+    <t>5629405254'</t>
+  </si>
+  <si>
+    <t>2367586948'</t>
+  </si>
+  <si>
+    <t>Feedback</t>
   </si>
 </sst>
 </file>
@@ -168,9 +183,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -489,7 +505,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,110 +530,110 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>8080861551</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>9860208155</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>9637811959</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>5629405254</v>
+        <v>12</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>2367586948</v>
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
